--- a/planning/User_needs.xlsx
+++ b/planning/User_needs.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Dave" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Catherine!$A$1:$Z$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Catherine!$A$1:$C$1</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Dave!$A$1:$Z$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t xml:space="preserve">Make a new sheet for each persona (copy the one that you see below and change the label to your persona's name)</t>
   </si>
@@ -70,10 +70,31 @@
     <t xml:space="preserve">I can purchase a sandwich made to order.</t>
   </si>
   <si>
+    <t xml:space="preserve">UX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person who uses mobile devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use the full functionality of the app on whatever device I choose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can view my spending at anytime with whatever device I have to hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person who at times needs to check on her balance and recent spending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go to my home page and be able to view my important account information clearly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transactions</t>
+  </si>
+  <si>
     <t xml:space="preserve">person with many bank accounts</t>
   </si>
   <si>
-    <t xml:space="preserve">be able to view all of my  transactions in a single place</t>
+    <t xml:space="preserve">view all of my  transactions in a single place</t>
   </si>
   <si>
     <t xml:space="preserve">keep track of my spending easily</t>
@@ -82,10 +103,49 @@
     <t xml:space="preserve">person who shops at many different outlets</t>
   </si>
   <si>
-    <t xml:space="preserve">be able to filter my transactions by merchant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can view specific transactions</t>
+    <t xml:space="preserve">filter my transactions by merchant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person with many transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter my transactions by month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view a list of my recent transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see my recent spending habits at a glance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person with a limited budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have warnings if a transaction takes me over a preset limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can manage my spending habits and avoid  bank charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person who shops at many different retailers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create new merchants in the app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can assign my transactions to the relevant merchant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign categories to each transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can monitor the types of transaction I am making</t>
   </si>
 </sst>
 </file>
@@ -95,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -145,6 +205,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -197,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,6 +292,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -447,23 +519,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="40.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="45.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="5" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1001" min="4" style="5" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1002" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -473,55 +546,146 @@
       <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="33.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="24.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Z1"/>
+  <autoFilter ref="A1:C1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A17:C17"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -553,38 +717,38 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Z1"/>
